--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2001 (MPR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2001 (MPR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,189 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>('Bear', ['Token Creature — Bear', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Bear</t>
+          <t>('Beast', ['Token Creature — Beast', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Elephant', ['Token Creature — Elephant', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Goblin Soldier', ['Token Creature — Goblin Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Token Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Token Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Goblin Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Wasteland</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Wasteland: Destroy target nonbasic land.</t>
+          <t>('Wasteland', ['Land', '{T}: Add {C}.', '{T}, Sacrifice Wasteland: Destroy target nonbasic land.'])</t>
         </is>
       </c>
     </row>
